--- a/OOADTimovi.xlsx
+++ b/OOADTimovi.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>Beduini</t>
   </si>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t>Activity(1.5)</t>
+  </si>
+  <si>
+    <t>25.03.2016</t>
+  </si>
+  <si>
+    <t>Opis teme(1)</t>
+  </si>
+  <si>
+    <t>Activity (1.5)</t>
+  </si>
+  <si>
+    <t>1.5 (-0.2?)</t>
+  </si>
+  <si>
+    <t>Aktivnosti nakon zavrsnog cvora</t>
   </si>
 </sst>
 </file>
@@ -185,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,8 +225,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -353,11 +374,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -372,7 +406,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,9 +414,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,7 +730,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -721,16 +770,16 @@
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="11"/>
@@ -765,146 +814,146 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26">
         <v>1</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="26">
         <v>1.5</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="26">
         <v>1.5</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -917,7 +966,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="A1:XFD1048576"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -957,16 +1006,16 @@
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="11"/>
@@ -1001,132 +1050,146 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="A6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1138,7 +1201,245 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="A1:XFD1048576"/>
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -1166,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1178,17 +1479,17 @@
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>22</v>
+      <c r="B3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="1"/>
@@ -1222,367 +1523,146 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="A6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
